--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Icam4-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Icam4-Itgb1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.7497096666666666</v>
+        <v>1.389221</v>
       </c>
       <c r="H2">
-        <v>2.249129</v>
+        <v>4.167663</v>
       </c>
       <c r="I2">
-        <v>0.1942187779702391</v>
+        <v>0.2910270461264192</v>
       </c>
       <c r="J2">
-        <v>0.1942187779702391</v>
+        <v>0.2910270461264192</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N2">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O2">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P2">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q2">
-        <v>115.1021884086342</v>
+        <v>202.4105342065714</v>
       </c>
       <c r="R2">
-        <v>1035.919695677708</v>
+        <v>1821.694807859142</v>
       </c>
       <c r="S2">
-        <v>0.06161021609526034</v>
+        <v>0.0834065397795499</v>
       </c>
       <c r="T2">
-        <v>0.06161021609526034</v>
+        <v>0.0834065397795499</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.7497096666666666</v>
+        <v>1.389221</v>
       </c>
       <c r="H3">
-        <v>2.249129</v>
+        <v>4.167663</v>
       </c>
       <c r="I3">
-        <v>0.1942187779702391</v>
+        <v>0.2910270461264192</v>
       </c>
       <c r="J3">
-        <v>0.1942187779702391</v>
+        <v>0.2910270461264192</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O3">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P3">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q3">
-        <v>126.5507688196591</v>
+        <v>234.5000917382894</v>
       </c>
       <c r="R3">
-        <v>1138.956919376932</v>
+        <v>2110.500825644604</v>
       </c>
       <c r="S3">
-        <v>0.06773824478749588</v>
+        <v>0.09662956182861922</v>
       </c>
       <c r="T3">
-        <v>0.06773824478749585</v>
+        <v>0.09662956182861922</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.7497096666666666</v>
+        <v>1.389221</v>
       </c>
       <c r="H4">
-        <v>2.249129</v>
+        <v>4.167663</v>
       </c>
       <c r="I4">
-        <v>0.1942187779702391</v>
+        <v>0.2910270461264192</v>
       </c>
       <c r="J4">
-        <v>0.1942187779702391</v>
+        <v>0.2910270461264192</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N4">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O4">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P4">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q4">
-        <v>70.14484038727232</v>
+        <v>177.9955447121814</v>
       </c>
       <c r="R4">
-        <v>631.3035634854509</v>
+        <v>1601.959902409632</v>
       </c>
       <c r="S4">
-        <v>0.03754610432674635</v>
+        <v>0.07334594782239957</v>
       </c>
       <c r="T4">
-        <v>0.03754610432674634</v>
+        <v>0.07334594782239957</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.7497096666666666</v>
+        <v>1.389221</v>
       </c>
       <c r="H5">
-        <v>2.249129</v>
+        <v>4.167663</v>
       </c>
       <c r="I5">
-        <v>0.1942187779702391</v>
+        <v>0.2910270461264192</v>
       </c>
       <c r="J5">
-        <v>0.1942187779702391</v>
+        <v>0.2910270461264192</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N5">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O5">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P5">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q5">
-        <v>51.04797360945889</v>
+        <v>91.356671929459</v>
       </c>
       <c r="R5">
-        <v>459.43176248513</v>
+        <v>822.210047365131</v>
       </c>
       <c r="S5">
-        <v>0.02732421276073659</v>
+        <v>0.03764499669585049</v>
       </c>
       <c r="T5">
-        <v>0.02732421276073659</v>
+        <v>0.03764499669585049</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>6.606466000000001</v>
       </c>
       <c r="I6">
-        <v>0.5704873989984275</v>
+        <v>0.461328155686921</v>
       </c>
       <c r="J6">
-        <v>0.5704873989984274</v>
+        <v>0.4613281556869209</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N6">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O6">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P6">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q6">
-        <v>338.0947443420258</v>
+        <v>320.8556719383383</v>
       </c>
       <c r="R6">
-        <v>3042.852699078232</v>
+        <v>2887.701047445045</v>
       </c>
       <c r="S6">
-        <v>0.1809704102725946</v>
+        <v>0.1322137776569852</v>
       </c>
       <c r="T6">
-        <v>0.1809704102725945</v>
+        <v>0.1322137776569852</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>6.606466000000001</v>
       </c>
       <c r="I7">
-        <v>0.5704873989984275</v>
+        <v>0.461328155686921</v>
       </c>
       <c r="J7">
-        <v>0.5704873989984274</v>
+        <v>0.4613281556869209</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O7">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P7">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q7">
         <v>371.723165492481</v>
@@ -883,10 +883,10 @@
         <v>3345.508489432329</v>
       </c>
       <c r="S7">
-        <v>0.19897053974595</v>
+        <v>0.1531745524567775</v>
       </c>
       <c r="T7">
-        <v>0.1989705397459499</v>
+        <v>0.1531745524567775</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>6.606466000000001</v>
       </c>
       <c r="I8">
-        <v>0.5704873989984275</v>
+        <v>0.461328155686921</v>
       </c>
       <c r="J8">
-        <v>0.5704873989984274</v>
+        <v>0.4613281556869209</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N8">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O8">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P8">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q8">
-        <v>206.0395393478727</v>
+        <v>282.1536948386916</v>
       </c>
       <c r="R8">
-        <v>1854.355854130854</v>
+        <v>2539.383253548224</v>
       </c>
       <c r="S8">
-        <v>0.1102858313894413</v>
+        <v>0.1162660010001905</v>
       </c>
       <c r="T8">
-        <v>0.1102858313894412</v>
+        <v>0.1162660010001905</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>6.606466000000001</v>
       </c>
       <c r="I9">
-        <v>0.5704873989984275</v>
+        <v>0.461328155686921</v>
       </c>
       <c r="J9">
-        <v>0.5704873989984274</v>
+        <v>0.4613281556869209</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N9">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O9">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P9">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q9">
-        <v>149.9454686768912</v>
+        <v>144.8161108456047</v>
       </c>
       <c r="R9">
-        <v>1349.509218092021</v>
+        <v>1303.344997610442</v>
       </c>
       <c r="S9">
-        <v>0.08026061759044165</v>
+        <v>0.05967382457296778</v>
       </c>
       <c r="T9">
-        <v>0.08026061759044163</v>
+        <v>0.05967382457296778</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,22 +1027,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.07599399999999999</v>
+        <v>0.1506176666666667</v>
       </c>
       <c r="H10">
-        <v>0.227982</v>
+        <v>0.451853</v>
       </c>
       <c r="I10">
-        <v>0.01968690343649077</v>
+        <v>0.03155280162368235</v>
       </c>
       <c r="J10">
-        <v>0.01968690343649077</v>
+        <v>0.03155280162368235</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N10">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O10">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P10">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q10">
-        <v>11.66728414322933</v>
+        <v>21.94510619328911</v>
       </c>
       <c r="R10">
-        <v>105.005557289064</v>
+        <v>197.505955739602</v>
       </c>
       <c r="S10">
-        <v>0.006245093227569269</v>
+        <v>0.009042836529491219</v>
       </c>
       <c r="T10">
-        <v>0.006245093227569269</v>
+        <v>0.009042836529491219</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.07599399999999999</v>
+        <v>0.1506176666666667</v>
       </c>
       <c r="H11">
-        <v>0.227982</v>
+        <v>0.451853</v>
       </c>
       <c r="I11">
-        <v>0.01968690343649077</v>
+        <v>0.03155280162368235</v>
       </c>
       <c r="J11">
-        <v>0.01968690343649077</v>
+        <v>0.03155280162368235</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O11">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P11">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q11">
-        <v>12.82776460445067</v>
+        <v>25.42421734968045</v>
       </c>
       <c r="R11">
-        <v>115.449881440056</v>
+        <v>228.817956147124</v>
       </c>
       <c r="S11">
-        <v>0.006866258237363389</v>
+        <v>0.01047646064495788</v>
       </c>
       <c r="T11">
-        <v>0.006866258237363388</v>
+        <v>0.01047646064495788</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.07599399999999999</v>
+        <v>0.1506176666666667</v>
       </c>
       <c r="H12">
-        <v>0.227982</v>
+        <v>0.451853</v>
       </c>
       <c r="I12">
-        <v>0.01968690343649077</v>
+        <v>0.03155280162368235</v>
       </c>
       <c r="J12">
-        <v>0.01968690343649077</v>
+        <v>0.03155280162368235</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N12">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O12">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P12">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q12">
-        <v>7.110201771961999</v>
+        <v>19.29806245486578</v>
       </c>
       <c r="R12">
-        <v>63.991815947658</v>
+        <v>173.682562093792</v>
       </c>
       <c r="S12">
-        <v>0.003805844821093092</v>
+        <v>0.007952079273538843</v>
       </c>
       <c r="T12">
-        <v>0.003805844821093091</v>
+        <v>0.007952079273538843</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,22 +1213,22 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.07599399999999999</v>
+        <v>0.1506176666666667</v>
       </c>
       <c r="H13">
-        <v>0.227982</v>
+        <v>0.451853</v>
       </c>
       <c r="I13">
-        <v>0.01968690343649077</v>
+        <v>0.03155280162368235</v>
       </c>
       <c r="J13">
-        <v>0.01968690343649077</v>
+        <v>0.03155280162368235</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N13">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O13">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P13">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q13">
-        <v>5.174456031393333</v>
+        <v>9.904780276462333</v>
       </c>
       <c r="R13">
-        <v>46.57010428254001</v>
+        <v>89.14302248816099</v>
       </c>
       <c r="S13">
-        <v>0.002769707150465023</v>
+        <v>0.00408142517569442</v>
       </c>
       <c r="T13">
-        <v>0.002769707150465023</v>
+        <v>0.00408142517569442</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.8322706666666666</v>
+        <v>1.031517666666667</v>
       </c>
       <c r="H14">
-        <v>2.496812</v>
+        <v>3.094553</v>
       </c>
       <c r="I14">
-        <v>0.2156069195948426</v>
+        <v>0.2160919965629775</v>
       </c>
       <c r="J14">
-        <v>0.2156069195948426</v>
+        <v>0.2160919965629775</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N14">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O14">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P14">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q14">
-        <v>127.7776976086915</v>
+        <v>150.2928921701558</v>
       </c>
       <c r="R14">
-        <v>1149.999278478224</v>
+        <v>1352.636029531402</v>
       </c>
       <c r="S14">
-        <v>0.06839497728642473</v>
+        <v>0.06193062104455793</v>
       </c>
       <c r="T14">
-        <v>0.06839497728642473</v>
+        <v>0.06193062104455793</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.8322706666666666</v>
+        <v>1.031517666666667</v>
       </c>
       <c r="H15">
-        <v>2.496812</v>
+        <v>3.094553</v>
       </c>
       <c r="I15">
-        <v>0.2156069195948426</v>
+        <v>0.2160919965629775</v>
       </c>
       <c r="J15">
-        <v>0.2156069195948426</v>
+        <v>0.2160919965629775</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O15">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P15">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q15">
-        <v>140.4870410715218</v>
+        <v>174.1198754287471</v>
       </c>
       <c r="R15">
-        <v>1264.383369643696</v>
+        <v>1567.078878858724</v>
       </c>
       <c r="S15">
-        <v>0.07519784878695582</v>
+        <v>0.07174891550622953</v>
       </c>
       <c r="T15">
-        <v>0.07519784878695579</v>
+        <v>0.07174891550622953</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.8322706666666666</v>
+        <v>1.031517666666667</v>
       </c>
       <c r="H16">
-        <v>2.496812</v>
+        <v>3.094553</v>
       </c>
       <c r="I16">
-        <v>0.2156069195948426</v>
+        <v>0.2160919965629775</v>
       </c>
       <c r="J16">
-        <v>0.2156069195948426</v>
+        <v>0.2160919965629775</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N16">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O16">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P16">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q16">
-        <v>77.86946823282533</v>
+        <v>132.1643921007324</v>
       </c>
       <c r="R16">
-        <v>700.8252140954279</v>
+        <v>1189.479528906592</v>
       </c>
       <c r="S16">
-        <v>0.04168083015081492</v>
+        <v>0.05446047889948157</v>
       </c>
       <c r="T16">
-        <v>0.0416808301508149</v>
+        <v>0.05446047889948157</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.8322706666666666</v>
+        <v>1.031517666666667</v>
       </c>
       <c r="H17">
-        <v>2.496812</v>
+        <v>3.094553</v>
       </c>
       <c r="I17">
-        <v>0.2156069195948426</v>
+        <v>0.2160919965629775</v>
       </c>
       <c r="J17">
-        <v>0.2156069195948426</v>
+        <v>0.2160919965629775</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N17">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O17">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P17">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q17">
-        <v>56.66957879418223</v>
+        <v>67.83371476756233</v>
       </c>
       <c r="R17">
-        <v>510.02620914764</v>
+        <v>610.503432908061</v>
       </c>
       <c r="S17">
-        <v>0.03033326337064714</v>
+        <v>0.02795198111270854</v>
       </c>
       <c r="T17">
-        <v>0.03033326337064714</v>
+        <v>0.02795198111270854</v>
       </c>
     </row>
   </sheetData>
